--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F859ADE-5E96-4440-88D7-9632BBFE0D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6FC991-FA7B-4326-8E02-CE25CA15B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
       <sheetName val="Administrador"/>
       <sheetName val="ConjuntoResidencial"/>
       <sheetName val="Zonainmueble"/>
+      <sheetName val="Inmueble"/>
       <sheetName val="ZonaComun"/>
-      <sheetName val="Inmueble"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -755,17 +755,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E1381-9DD8-476B-8044-3E079F79E259}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -781,7 +781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -802,22 +802,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F213F-7D77-4A77-8569-EB0D1E5DC4A2}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -862,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -890,14 +890,14 @@
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
         <v>Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -971,7 +971,7 @@
         <v>Juan Aristisabal-16513516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>Andres Velez-8552369</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1080,22 +1080,22 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1114,6 +1114,7 @@
     <hyperlink ref="H4" r:id="rId1" xr:uid="{575574F8-C110-4781-BE8D-D319EE9EC0A4}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{701F3807-8674-4C3F-86F3-B411F6695D51}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{4525FE6E-C6F6-4156-9B07-6EC32C59861A}"/>
+    <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{66DFC19A-F159-40E3-B21E-92948E39D4D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1123,19 +1124,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FC3312-8668-46CD-8DD2-1497244E5D47}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1145,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1290,12 +1291,12 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6FC991-FA7B-4326-8E02-CE25CA15B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{BF6FC991-FA7B-4326-8E02-CE25CA15B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311B428E-719B-49D4-9894-C300652C82F6}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Tipo de documento</t>
   </si>
   <si>
-    <t>Cédula</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Corresponde a la persona que puede realizar una reserva para una zona común.</t>
+  </si>
+  <si>
+    <t>Número de documento</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,7 +437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,13 +759,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,20 +773,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -802,22 +802,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F213F-7D77-4A77-8569-EB0D1E5DC4A2}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" customWidth="1"/>
+    <col min="11" max="11" width="81.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -862,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -876,39 +876,39 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="11">
         <v>74564891</v>
@@ -920,7 +920,7 @@
         <v>3053456459</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="11">
         <v>789654</v>
@@ -930,22 +930,22 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f>_xlfn.CONCAT(B4," ",C4,"-",E4)</f>
-        <v>Jose Zuluf-74564891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f>_xlfn.CONCAT(B4," ",C4,"-",D4,"-",E4,"-",J4)</f>
+        <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="11">
         <v>16513516</v>
@@ -957,7 +957,7 @@
         <v>3015124578</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="11">
         <v>523698</v>
@@ -967,22 +967,22 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f t="shared" ref="K5:K10" si="0">_xlfn.CONCAT(B5," ",C5,"-",E5)</f>
-        <v>Juan Aristisabal-16513516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K5:K10" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
+        <v>Juan Aristisabal-Registro Civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="11">
         <v>8552369</v>
@@ -994,7 +994,7 @@
         <v>3057477830</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="11">
         <v>852339</v>
@@ -1005,10 +1005,10 @@
       </c>
       <c r="K6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Andres Velez-8552369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Andres Velez-Cédula de Ciudadanía-8552369-Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1023,10 +1023,10 @@
       <c r="J7" s="10"/>
       <c r="K7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> ---</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1041,10 +1041,10 @@
       <c r="J8" s="10"/>
       <c r="K8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> ---</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1059,10 +1059,10 @@
       <c r="J9" s="10"/>
       <c r="K9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> ---</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1077,27 +1077,27 @@
       <c r="J10" s="10"/>
       <c r="K10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> ---</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1124,19 +1124,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FC3312-8668-46CD-8DD2-1497244E5D47}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1145,46 +1145,46 @@
       <c r="D1" s="17"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>102</v>
@@ -1198,12 +1198,12 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -1217,12 +1217,12 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>304</v>
@@ -1236,12 +1236,12 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -1255,7 +1255,7 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1291,14 +1291,14 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{BF6FC991-FA7B-4326-8E02-CE25CA15B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311B428E-719B-49D4-9894-C300652C82F6}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{BF6FC991-FA7B-4326-8E02-CE25CA15B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FE3174-6121-429D-AFC0-EE94A485C1C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Nombre</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Tarjeta de Identidad</t>
   </si>
   <si>
-    <t>Registro Civil</t>
-  </si>
-  <si>
-    <t>Cédula de Extranjería</t>
-  </si>
-  <si>
     <t>Es un dato que hace que cada zona común sea única.</t>
   </si>
   <si>
@@ -192,6 +186,114 @@
   </si>
   <si>
     <t>Número de documento</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>alejandro.perez90@mail.com</t>
+  </si>
+  <si>
+    <t>AlejPz90*</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>maria.gomez85@mail.com</t>
+  </si>
+  <si>
+    <t>MgoMez85!</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>juan.rodriguez95@mail.com</t>
+  </si>
+  <si>
+    <t>JuanRod95#</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>camila.torres00@mail.com</t>
+  </si>
+  <si>
+    <t>Ctorres2000@</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>andres.garcia92@mail.com</t>
+  </si>
+  <si>
+    <t>Agarcia92+</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>laura.martinez93@mail.com</t>
+  </si>
+  <si>
+    <t>LauraMart93^</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>felipe.ramirez88@mail.com</t>
+  </si>
+  <si>
+    <t>FelipeRam88$</t>
+  </si>
+  <si>
+    <t>asdgf789654</t>
+  </si>
+  <si>
+    <t>nhf523698</t>
+  </si>
+  <si>
+    <t>vfdf852339</t>
+  </si>
+  <si>
+    <t>Registro civil</t>
+  </si>
+  <si>
+    <t>Cédula de extranjería</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Está habitado</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -294,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -316,6 +418,7 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -428,12 +531,26 @@
             <v>Bloque2 de 2-Natural</v>
           </cell>
         </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>Torre7 de 4-Bolivar</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>Bloque3 de 3-Riogrande</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,15 +895,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -802,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F213F-7D77-4A77-8569-EB0D1E5DC4A2}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,16 +931,16 @@
     <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="81.21875" customWidth="1"/>
+    <col min="11" max="11" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -876,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -907,7 +1024,7 @@
       <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="11">
@@ -922,8 +1039,8 @@
       <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="11">
-        <v>789654</v>
+      <c r="I4" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="J4" s="11" t="str">
         <f>[1]Residente!J4</f>
@@ -944,8 +1061,8 @@
       <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
+      <c r="D5" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E5" s="11">
         <v>16513516</v>
@@ -959,16 +1076,16 @@
       <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11">
-        <v>523698</v>
+      <c r="I5" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="11" t="str">
         <f>[1]Residente!J5</f>
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f t="shared" ref="K5:K10" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
-        <v>Juan Aristisabal-Registro Civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+        <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
+        <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -981,8 +1098,8 @@
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
+      <c r="D6" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="11">
         <v>8552369</v>
@@ -996,8 +1113,8 @@
       <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="11">
-        <v>852339</v>
+      <c r="I6" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="J6" s="10" t="str">
         <f>[1]Residente!J6</f>
@@ -1005,110 +1122,276 @@
       </c>
       <c r="K6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Andres Velez-Cédula de Ciudadanía-8552369-Casa '11' de Bloque2 de 2-Natural</v>
+        <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1012345678</v>
+      </c>
+      <c r="F7" s="17">
+        <v>32944</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3102345678</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f>Inmueble!F10</f>
+        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
       <c r="K7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ---</v>
+        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '52' de Bloque3 de 3-Riogrande</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1023456789</v>
+      </c>
+      <c r="F8" s="17">
+        <v>31253</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3204567890</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f>Inmueble!F6</f>
+        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
       <c r="K8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ---</v>
+        <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1034567890</v>
+      </c>
+      <c r="F9" s="17">
+        <v>35013</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3156781234</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f>Inmueble!F12</f>
+        <v>Casa '12' de Bloque3 de 3-Riogrande</v>
+      </c>
       <c r="K9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ---</v>
+        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
+        <v>900123456</v>
+      </c>
+      <c r="F10" s="17">
+        <v>36560</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3112345678</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f>Inmueble!F11</f>
+        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
       <c r="K10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ---</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+        <v>Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1045678901</v>
+      </c>
+      <c r="F11" s="17">
+        <v>33867</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3149876543</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>Inmueble!F10</f>
+        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="E12" s="5">
+        <v>1056789012</v>
+      </c>
+      <c r="F12" s="17">
+        <v>34128</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3135678901</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f>Inmueble!F6</f>
+        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1067890123</v>
+      </c>
+      <c r="F13" s="17">
+        <v>32507</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3123456789</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f>Inmueble!F7</f>
+        <v>Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+      <c r="K13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{FA182ABC-42E5-4416-A78A-4BA9E8F41038}">
-      <formula1>$A$21:$A$24</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{43059A1D-3E1B-4DD4-855C-1D0C8661D9BC}"/>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{575574F8-C110-4781-BE8D-D319EE9EC0A4}"/>
@@ -1122,196 +1405,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FC3312-8668-46CD-8DD2-1497244E5D47}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5">
         <v>102</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="9" t="str">
         <f>[2]Zonainmueble!$E$4</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
-      <c r="E4" s="16" t="str">
-        <f>_xlfn.CONCAT(B4," '",C4,"'"," de ",D4)</f>
+      <c r="F4" s="16" t="str">
+        <f t="shared" ref="F4:F12" si="0">_xlfn.CONCAT(B4," '",C4,"'"," de ",E4)</f>
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="9" t="str">
         <f>[2]Zonainmueble!$E$5</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
-      <c r="E5" s="16" t="str">
-        <f t="shared" ref="E5:E10" si="0">_xlfn.CONCAT(B5," '",C5,"'"," de ",D5)</f>
+      <c r="F5" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5">
         <v>304</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f>[2]Zonainmueble!$E$6</f>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
-      <c r="E6" s="16" t="str">
+      <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <f>[2]Zonainmueble!$E$7</f>
         <v>Bloque2 de 2-Natural</v>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="16" t="str">
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1205</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f>[2]Zonainmueble!$E$11</f>
+        <v>Torre7 de 4-Bolivar</v>
+      </c>
+      <c r="F8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '' de </v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Apartamento '1205' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="16" t="str">
+      <c r="B9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1602</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f>[2]Zonainmueble!$E$11</f>
+        <v>Torre7 de 4-Bolivar</v>
+      </c>
+      <c r="F9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '' de </v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Apartamento '1602' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="16" t="str">
+      <c r="B10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>[2]Zonainmueble!$E$12</f>
+        <v>Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="F10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '' de </v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1204</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>[2]Zonainmueble!$E$11</f>
+        <v>Torre7 de 4-Bolivar</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f>[2]Zonainmueble!$E$12</f>
+        <v>Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Casa '12' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{D233ACEC-E673-4F6F-89DF-A94DDF7CE591}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{D233ACEC-E673-4F6F-89DF-A94DDF7CE591}">
       <formula1>$A$14:$A$15</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{C14FB652-5343-466F-9F68-882E156ABD7F}"/>
+    <hyperlink ref="F1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{C14FB652-5343-466F-9F68-882E156ABD7F}"/>
     <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{2CCEDEB2-A60A-4A95-B2D1-D6742950FF94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{BF6FC991-FA7B-4326-8E02-CE25CA15B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FE3174-6121-429D-AFC0-EE94A485C1C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102FDFCB-1A0D-4F53-BFD8-C9463D7E0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Nombre</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Es un dato que representa el apellido de un residente</t>
   </si>
   <si>
-    <t>Es un dato que representa la cédula o identificador único legal de un residente.</t>
-  </si>
-  <si>
     <t>Es un dato que representa la fecha de nacimiento que tiene un residente.</t>
   </si>
   <si>
@@ -77,30 +74,12 @@
     <t>Este dato representa el correo electrónico de un residente</t>
   </si>
   <si>
-    <t>Este dato representa el conjunto residencial al cual pertenece el residente.</t>
-  </si>
-  <si>
     <t>No puede haber mas de un residente con la misma cédula</t>
   </si>
   <si>
     <t>Identificador</t>
   </si>
   <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Tipo de documento</t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Número de contacto</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>contraseña</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>Corresponde a la persona que puede realizar una reserva para una zona común.</t>
   </si>
   <si>
-    <t>Número de documento</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -287,13 +263,37 @@
     <t>Pasaporte</t>
   </si>
   <si>
-    <t>Está habitado</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>este dato representa en forma textual que tipo de documento tiene el residente como TI, CC, RC, PASS</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el numero único del documento de un residente.</t>
+  </si>
+  <si>
+    <t>este dato representa la contraseña con la que ingresa el residente</t>
+  </si>
+  <si>
+    <t>Este dato representa el inmueble al cual pertenece el residente.</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>tipoDeDocumento</t>
+  </si>
+  <si>
+    <t>numeroDeDocumento</t>
+  </si>
+  <si>
+    <t>fechaDeNacimiento</t>
+  </si>
+  <si>
+    <t>numeroDeContacto</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -422,9 +422,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,9 +456,9 @@
       <sheetName val="Residente"/>
       <sheetName val="ZonaComun"/>
       <sheetName val="Agenda"/>
-      <sheetName val="RepetirAgenda"/>
       <sheetName val="Turno"/>
       <sheetName val="Reserva"/>
+      <sheetName val="RepetirAgenda"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -486,7 +487,7 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -531,6 +532,16 @@
             <v>Bloque2 de 2-Natural</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>Bloque2 de 3-Riogrande</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>Bloque5 de 5-Ventus</v>
+          </cell>
+        </row>
         <row r="11">
           <cell r="E11" t="str">
             <v>Torre7 de 4-Bolivar</v>
@@ -549,12 +560,8 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -876,13 +883,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,20 +897,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -917,24 +924,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F213F-7D77-4A77-8569-EB0D1E5DC4A2}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="86.109375" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="86.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
@@ -948,7 +956,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -958,74 +966,78 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11">
         <v>74564891</v>
@@ -1037,12 +1049,12 @@
         <v>3053456459</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="11" t="str">
+        <v>67</v>
+      </c>
+      <c r="J4" s="19" t="str">
         <f>[1]Residente!J4</f>
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
@@ -1051,18 +1063,18 @@
         <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E5" s="11">
         <v>16513516</v>
@@ -1074,12 +1086,12 @@
         <v>3015124578</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="11" t="str">
+        <v>68</v>
+      </c>
+      <c r="J5" s="19" t="str">
         <f>[1]Residente!J5</f>
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
@@ -1088,18 +1100,18 @@
         <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11">
         <v>8552369</v>
@@ -1111,12 +1123,12 @@
         <v>3057477830</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="10" t="str">
+        <v>69</v>
+      </c>
+      <c r="J6" s="13" t="str">
         <f>[1]Residente!J6</f>
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
@@ -1125,18 +1137,18 @@
         <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5">
         <v>1012345678</v>
@@ -1148,32 +1160,32 @@
         <v>3102345678</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f>Inmueble!F10</f>
-        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+        <v>43</v>
+      </c>
+      <c r="J7" s="13" t="str">
+        <f>Inmueble!E7</f>
+        <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
       <c r="K7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '52' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '11' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5">
         <v>1023456789</v>
@@ -1185,32 +1197,32 @@
         <v>3204567890</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f>Inmueble!F6</f>
-        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+        <v>47</v>
+      </c>
+      <c r="J8" s="13" t="str">
+        <f>Inmueble!E8</f>
+        <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
       </c>
       <c r="K8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '423' de Bloque5 de 5-Ventus</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5">
         <v>1034567890</v>
@@ -1222,32 +1234,32 @@
         <v>3156781234</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f>Inmueble!F12</f>
-        <v>Casa '12' de Bloque3 de 3-Riogrande</v>
+        <v>50</v>
+      </c>
+      <c r="J9" s="13" t="str">
+        <f>Inmueble!E9</f>
+        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
       </c>
       <c r="K9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Casa '12' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5">
         <v>900123456</v>
@@ -1259,32 +1271,32 @@
         <v>3112345678</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f>Inmueble!F11</f>
-        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+        <v>54</v>
+      </c>
+      <c r="J10" s="13" t="str">
+        <f>Inmueble!E10</f>
+        <v>Casa '5' de Bloque2 de 2-Natural</v>
       </c>
       <c r="K10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Camila Torres-Tarjeta de Identidad-900123456-Apartamento '1204' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Camila Torres-Tarjeta de Identidad-900123456-Casa '5' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5">
         <v>1045678901</v>
@@ -1296,32 +1308,32 @@
         <v>3149876543</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f>Inmueble!F10</f>
-        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>Inmueble!E11</f>
+        <v>Casa '17' de Bloque3 de 3-Riogrande</v>
       </c>
       <c r="K11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Andrés García-Pasaporte-1045678901-Casa '52' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Andrés García-Pasaporte-1045678901-Casa '17' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5">
         <v>1056789012</v>
@@ -1333,32 +1345,32 @@
         <v>3135678901</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f>Inmueble!F6</f>
-        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>Inmueble!E12</f>
+        <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
       </c>
       <c r="K12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '514' de Bloque2 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5">
         <v>1067890123</v>
@@ -1370,34 +1382,45 @@
         <v>3123456789</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f>Inmueble!F7</f>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>Inmueble!E13</f>
+        <v>Casa '23' de Bloque2 de 2-Natural</v>
       </c>
       <c r="K13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '23' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{FDEABA32-9B9F-48F1-92B5-9D12E98A9E21}">
+      <formula1>$A$21:$A$24</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{43059A1D-3E1B-4DD4-855C-1D0C8661D9BC}"/>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{575574F8-C110-4781-BE8D-D319EE9EC0A4}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{701F3807-8674-4C3F-86F3-B411F6695D51}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{4525FE6E-C6F6-4156-9B07-6EC32C59861A}"/>
-    <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{66DFC19A-F159-40E3-B21E-92948E39D4D8}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{5F432167-7E2A-4CA5-96F5-0381E79A47BB}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{9C343C19-A6C0-4A60-9F9F-A7C07368802F}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{C0DFEFEE-6C41-4A1F-AB20-A480E15ECB08}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{CF431DAE-4798-487A-ACD3-277447822872}"/>
+    <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{208DFBAD-01DD-4A87-9EFE-F42B4B55A273}"/>
+    <hyperlink ref="J4" location="Inmueble!A4" display="Inmueble!A4" xr:uid="{EEA6EDEE-53E3-4B08-9B27-E8EC2A82F130}"/>
+    <hyperlink ref="J5" location="Inmueble!A5" display="Inmueble!A5" xr:uid="{E38C6EA8-431F-4193-A36E-F18D7485808F}"/>
+    <hyperlink ref="J6" location="Inmueble!A7" display="Inmueble!A7" xr:uid="{865D54C3-47D6-4AA8-949F-AD73BB4A1616}"/>
+    <hyperlink ref="J7" location="Inmueble!A7" display="Inmueble!A7" xr:uid="{9470F1B9-C634-40B6-A806-6B7A19D8AB67}"/>
+    <hyperlink ref="J8" location="Inmueble!A8" display="Inmueble!A8" xr:uid="{5798B1E0-6604-435B-800A-070E4D29EB8E}"/>
+    <hyperlink ref="J9" location="Inmueble!A9" display="Inmueble!A9" xr:uid="{C37C38C8-6171-4042-82B5-FF6E5C1D13E5}"/>
+    <hyperlink ref="J10" location="Inmueble!A10" display="Inmueble!A10" xr:uid="{56372225-0C48-4AD9-9E55-D59339EEF37D}"/>
+    <hyperlink ref="J11" location="Inmueble!A11" display="Inmueble!A11" xr:uid="{DFD3296A-1213-4B96-8C28-D2BDC5D311AE}"/>
+    <hyperlink ref="J12" location="Inmueble!A12" display="Inmueble!A12" xr:uid="{AEFFAA18-BD04-49CA-8F5C-6E81D7BCFCD1}"/>
+    <hyperlink ref="J13" location="Inmueble!A13" display="Inmueble!A13" xr:uid="{C97134FD-4919-4E6C-8A98-02699E1786E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1405,288 +1428,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FC3312-8668-46CD-8DD2-1497244E5D47}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5">
         <v>102</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="9" t="str">
+      <c r="D4" s="2" t="str">
         <f>[2]Zonainmueble!$E$4</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
-      <c r="F4" s="16" t="str">
-        <f t="shared" ref="F4:F12" si="0">_xlfn.CONCAT(B4," '",C4,"'"," de ",E4)</f>
+      <c r="E4" s="16" t="str">
+        <f>_xlfn.CONCAT(B4," '",C4,"'"," de ",D4)</f>
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="9" t="str">
+      <c r="D5" s="2" t="str">
         <f>[2]Zonainmueble!$E$5</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
-      <c r="F5" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="16" t="str">
+        <f t="shared" ref="E5:E13" si="0">_xlfn.CONCAT(B5," '",C5,"'"," de ",D5)</f>
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5">
         <v>304</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="9" t="str">
+      <c r="D6" s="2" t="str">
         <f>[2]Zonainmueble!$E$6</f>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="E6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="D7" s="2" t="str">
         <f>[2]Zonainmueble!$E$7</f>
         <v>Bloque2 de 2-Natural</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="E7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
-        <v>1205</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f>[2]Zonainmueble!$E$11</f>
-        <v>Torre7 de 4-Bolivar</v>
-      </c>
-      <c r="F8" s="16" t="str">
+        <v>423</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>[2]Zonainmueble!E10</f>
+        <v>Bloque5 de 5-Ventus</v>
+      </c>
+      <c r="E8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '1205' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
-        <v>1602</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>[2]Zonainmueble!$E$11</f>
+        <v>1204</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>[2]Zonainmueble!E11</f>
         <v>Torre7 de 4-Bolivar</v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="E9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '1602' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f>[2]Zonainmueble!$E$12</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>[2]Zonainmueble!E7</f>
+        <v>Bloque2 de 2-Natural</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Casa '5' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>[2]Zonainmueble!E12</f>
         <v>Bloque3 de 3-Riogrande</v>
       </c>
-      <c r="F10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Casa '52' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1204</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f>[2]Zonainmueble!$E$11</f>
-        <v>Torre7 de 4-Bolivar</v>
-      </c>
-      <c r="F11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="16" t="str">
+        <f>_xlfn.CONCAT(B11," '",C11,"'"," de ",D11)</f>
+        <v>Casa '17' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f>[2]Zonainmueble!$E$12</f>
-        <v>Bloque3 de 3-Riogrande</v>
-      </c>
-      <c r="F12" s="16" t="str">
+        <v>514</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>[2]Zonainmueble!E9</f>
+        <v>Bloque2 de 3-Riogrande</v>
+      </c>
+      <c r="E12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '12' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
+        <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>[2]Zonainmueble!E7</f>
+        <v>Bloque2 de 2-Natural</v>
+      </c>
+      <c r="E13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Casa '23' de Bloque2 de 2-Natural</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B12" xr:uid="{D233ACEC-E673-4F6F-89DF-A94DDF7CE591}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{6006F0DE-C3DA-46C8-8C54-36919D59A24F}">
       <formula1>$A$14:$A$15</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{C14FB652-5343-466F-9F68-882E156ABD7F}"/>
-    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{2CCEDEB2-A60A-4A95-B2D1-D6742950FF94}"/>
+    <hyperlink ref="E1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{59B96AB1-293A-44D1-B8EE-C5A604C6C87A}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{A9A61E7B-D75D-488E-ACCF-F5AD523C1A9D}"/>
+    <hyperlink ref="D3" location="Zonainmueble!A1" display="ZonaInmueble" xr:uid="{700B9BED-7D70-4761-A94E-A72A22F6B925}"/>
+    <hyperlink ref="D4" location="Zonainmueble!A4" display="Zonainmueble!A4" xr:uid="{353F6BA1-F240-482C-82D8-CFDA1E399ED2}"/>
+    <hyperlink ref="D5" location="Zonainmueble!A5" display="Zonainmueble!A5" xr:uid="{D7B0E47D-3D6D-4220-9DB5-415C623582BF}"/>
+    <hyperlink ref="D6" location="Zonainmueble!A6" display="Zonainmueble!A6" xr:uid="{21875771-1D9B-4868-9E51-773FF1AEB4E9}"/>
+    <hyperlink ref="D7" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{D76E7308-FA20-4A63-84B9-A7C412206763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102FDFCB-1A0D-4F53-BFD8-C9463D7E0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B1C2F7-D9E7-4E23-B267-592BD9E5B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -419,10 +419,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -452,42 +452,18 @@
       <sheetName val="Administrador"/>
       <sheetName val="ConjuntoResidencial"/>
       <sheetName val="Zonainmueble"/>
-      <sheetName val="Inmueble"/>
-      <sheetName val="Residente"/>
       <sheetName val="ZonaComun"/>
       <sheetName val="Agenda"/>
       <sheetName val="Turno"/>
-      <sheetName val="Reserva"/>
-      <sheetName val="RepetirAgenda"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="J4" t="str">
-            <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5" t="str">
-            <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6" t="str">
-            <v>Casa '11' de Bloque2 de 2-Natural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -508,9 +484,9 @@
       <sheetName val="ZonaComun"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="4">
           <cell r="E4" t="str">
@@ -553,8 +529,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -883,13 +859,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -905,7 +881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -930,25 +906,25 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
-    <col min="11" max="11" width="86.140625" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" customWidth="1"/>
+    <col min="11" max="11" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -956,7 +932,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -991,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1054,16 +1030,16 @@
       <c r="I4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="19" t="str">
-        <f>[1]Residente!J4</f>
-        <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="K4" s="14" t="str">
+      <c r="J4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" s="14" t="e">
         <f>_xlfn.CONCAT(B4," ",C4,"-",D4,"-",E4,"-",J4)</f>
-        <v>Jose Zuluf-Cédula de Ciudadanía-74564891-Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1091,16 +1067,16 @@
       <c r="I5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="19" t="str">
-        <f>[1]Residente!J5</f>
-        <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="K5" s="14" t="str">
+      <c r="J5" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="14" t="e">
         <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
-        <v>Juan Aristisabal-Registro civil-16513516-Casa '10' de Bloque1 de 1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1128,16 +1104,16 @@
       <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="13" t="str">
-        <f>[1]Residente!J6</f>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-      <c r="K6" s="14" t="str">
+      <c r="J6" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="14" t="e">
         <f t="shared" si="0"/>
-        <v>Andres Velez-Pasaporte-8552369-Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1174,7 +1150,7 @@
         <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1211,7 +1187,7 @@
         <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '423' de Bloque5 de 5-Ventus</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1248,7 +1224,7 @@
         <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Apartamento '1204' de Torre7 de 4-Bolivar</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1285,7 +1261,7 @@
         <v>Camila Torres-Tarjeta de Identidad-900123456-Casa '5' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1322,7 +1298,7 @@
         <v>Andrés García-Pasaporte-1045678901-Casa '17' de Bloque3 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1359,7 +1335,7 @@
         <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '514' de Bloque2 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1434,24 +1410,24 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -1468,7 +1444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1504,7 +1480,7 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1523,7 +1499,7 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1542,7 +1518,7 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1561,7 +1537,7 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1580,7 +1556,7 @@
         <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1599,7 +1575,7 @@
         <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1618,7 +1594,7 @@
         <v>Casa '5' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1637,7 +1613,7 @@
         <v>Casa '17' de Bloque3 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1656,7 +1632,7 @@
         <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B1C2F7-D9E7-4E23-B267-592BD9E5B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B8FC5-C25C-4C3F-85DC-A6317E7512F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Nombre</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Este dato representa el correo electrónico de un residente</t>
   </si>
   <si>
-    <t>No puede haber mas de un residente con la misma cédula</t>
-  </si>
-  <si>
     <t>Identificador</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t xml:space="preserve"> inmueble</t>
   </si>
   <si>
-    <t>Combinación única</t>
-  </si>
-  <si>
     <t>Jose</t>
   </si>
   <si>
@@ -122,27 +116,9 @@
     <t>Tarjeta de Identidad</t>
   </si>
   <si>
-    <t>Es un dato que hace que cada zona común sea única.</t>
-  </si>
-  <si>
-    <t>Es un dato que representa al nombre de una zona comun.</t>
-  </si>
-  <si>
-    <t>Es te atributo hace referencia a la imagen que va a acompañar a la zona común para mayor facilidad a la hora de identificarlo.</t>
-  </si>
-  <si>
-    <t>Es un dato que representa el conjunto residencial al cual pertenece la zona común.</t>
-  </si>
-  <si>
-    <t>No es posible tener más de una zona común con el mismo nombre para un mismo conjunto residencial.</t>
-  </si>
-  <si>
     <t>tipoInmueble</t>
   </si>
   <si>
-    <t>numero de vivienda</t>
-  </si>
-  <si>
     <t>ZonaInmueble</t>
   </si>
   <si>
@@ -158,12 +134,6 @@
     <t>Inmueble</t>
   </si>
   <si>
-    <t>Corresponde a los inmuebles donde viven los residentes como apartamentos, casas Etc.</t>
-  </si>
-  <si>
-    <t>Corresponde a la persona que puede realizar una reserva para una zona común.</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -263,9 +233,6 @@
     <t>Pasaporte</t>
   </si>
   <si>
-    <t>este dato representa en forma textual que tipo de documento tiene el residente como TI, CC, RC, PASS</t>
-  </si>
-  <si>
     <t>Es un dato que representa el numero único del documento de un residente.</t>
   </si>
   <si>
@@ -284,16 +251,52 @@
     <t>tipoDeDocumento</t>
   </si>
   <si>
-    <t>numeroDeDocumento</t>
-  </si>
-  <si>
-    <t>fechaDeNacimiento</t>
-  </si>
-  <si>
-    <t>numeroDeContacto</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>Es un dato que hace que cada inmueble sea único.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de un inmueble Casa, apartamento ETC.</t>
+  </si>
+  <si>
+    <t>Este atributo representa el número especifico del inmueble.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la zona inmueble al cual pertenece el inmueble.</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un tipo inmueble que tenga el mismo número de vivienda más la misma zona inmueble.</t>
+  </si>
+  <si>
+    <t>numeroVivienda</t>
+  </si>
+  <si>
+    <t>este dato representa en forma textual , que tipo de documento tiene el residente como TI, CC, RC, PASS.</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>fechaNacimiento</t>
+  </si>
+  <si>
+    <t>numeroContacto</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>Combinación única 2</t>
+  </si>
+  <si>
+    <t>Combinación única 3</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo correo.</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo tipo de documento y el mismo número de documento.</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo número de contacto</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +338,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF4EA72E"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +377,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE2D5"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -408,7 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -422,6 +439,18 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,18 +481,57 @@
       <sheetName val="Administrador"/>
       <sheetName val="ConjuntoResidencial"/>
       <sheetName val="Zonainmueble"/>
+      <sheetName val="Inmueble"/>
       <sheetName val="ZonaComun"/>
-      <sheetName val="Agenda"/>
-      <sheetName val="Turno"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Torre1 - Forest apartamentos</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>Bloque1 - Forest apartamentos</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>Torre2 - Forest apartamentos</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>Bloque1 - Natural</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>Bloque1 - Riogrande</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>Bloque1 - Ventus</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>Torre1 - Bolivar</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>Bloque2 - Riogrande</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -476,61 +544,29 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="Administrador"/>
-      <sheetName val="ConjuntoResidencial"/>
-      <sheetName val="Zonainmueble"/>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo Dominio anémico contexto"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Residente"/>
       <sheetName val="Inmueble"/>
-      <sheetName val="ZonaComun"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>Torre1 de 1-Forest apartamentos</v>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>Bloque1 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>Torre2 de 1-Forest apartamentos</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>Bloque2 de 2-Natural</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>Bloque2 de 3-Riogrande</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>Bloque5 de 5-Ventus</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>Torre7 de 4-Bolivar</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>Bloque3 de 3-Riogrande</v>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -855,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E1381-9DD8-476B-8044-3E079F79E259}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,16 +913,18 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
+      <c r="B2" s="4" t="str">
+        <f>'[2]Listado Objetos de Dominio'!$B$3</f>
+        <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>'[2]Listado Objetos de Dominio'!$B$4</f>
+        <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
     </row>
   </sheetData>
@@ -900,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F213F-7D77-4A77-8569-EB0D1E5DC4A2}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,16 +953,18 @@
     <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="50.5546875" customWidth="1"/>
-    <col min="11" max="11" width="86.109375" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -932,444 +972,536 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" s="19" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10">
+        <v>74564891</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36689</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3053456459</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="17" t="str">
+        <f>Inmueble!E4</f>
+        <v>Apartamento102 - Torre1 - Forest apartamentos</v>
+      </c>
+      <c r="K4" s="13" t="str">
+        <f>_xlfn.CONCAT(D4,"-",E4)</f>
+        <v>Cédula de Ciudadanía-74564891</v>
+      </c>
+      <c r="L4" s="13">
+        <f>G4</f>
+        <v>3053456459</v>
+      </c>
+      <c r="M4" s="13" t="str">
+        <f>H4</f>
+        <v>example@example.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11">
-        <v>74564891</v>
-      </c>
-      <c r="F4" s="12">
-        <v>36689</v>
-      </c>
-      <c r="G4" s="11">
-        <v>3053456459</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="18" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="14" t="e">
-        <f>_xlfn.CONCAT(B4," ",C4,"-",D4,"-",E4,"-",J4)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10">
+        <v>16513516</v>
+      </c>
+      <c r="F5" s="11">
+        <v>38315</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3015124578</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="I5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="17" t="str">
+        <f>Inmueble!E5</f>
+        <v>Casa10 - Bloque1 - Forest apartamentos</v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f t="shared" ref="K5:M13" si="0">_xlfn.CONCAT(D5,"-",E5)</f>
+        <v>Registro civil-16513516</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L13" si="1">G5</f>
+        <v>3015124578</v>
+      </c>
+      <c r="M5" s="13" t="str">
+        <f t="shared" ref="M5:M13" si="2">H5</f>
+        <v xml:space="preserve">ejemplo@jueves.com </v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="11">
-        <v>16513516</v>
-      </c>
-      <c r="F5" s="12">
-        <v>38315</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3015124578</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="18" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="14" t="e">
-        <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(B5," ",C5,"-",D5,"-",E5,"-",J5)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8552369</v>
+      </c>
+      <c r="F6" s="11">
+        <v>35494</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3057477830</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="11">
-        <v>8552369</v>
-      </c>
-      <c r="F6" s="12">
-        <v>35494</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="I6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f>Inmueble!E6</f>
+        <v>Apartamento304 - Torre2 - Forest apartamentos</v>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Pasaporte-8552369</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="1"/>
         <v>3057477830</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="M6" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>andresjobpk@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
         <v>1012345678</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>32944</v>
       </c>
       <c r="G7" s="5">
         <v>3102345678</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>42</v>
+      <c r="H7" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="13" t="str">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="str">
         <f>Inmueble!E7</f>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-      <c r="K7" s="14" t="str">
+        <v>Casa11 - Bloque1 - Natural</v>
+      </c>
+      <c r="K7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Alejandro Pérez-Cédula de Ciudadanía-1012345678-Casa '11' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+        <v>Cédula de Ciudadanía-1012345678</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="1"/>
+        <v>3102345678</v>
+      </c>
+      <c r="M7" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>alejandro.perez90@mail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5">
         <v>1023456789</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>31253</v>
       </c>
       <c r="G8" s="5">
         <v>3204567890</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>46</v>
+      <c r="H8" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="13" t="str">
+        <v>37</v>
+      </c>
+      <c r="J8" s="12" t="str">
         <f>Inmueble!E8</f>
-        <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
-      </c>
-      <c r="K8" s="14" t="str">
+        <v>Apartamento423 - Bloque1 - Ventus</v>
+      </c>
+      <c r="K8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>María Gómez-Cédula de extranjería-1023456789-Apartamento '423' de Bloque5 de 5-Ventus</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+        <v>Cédula de extranjería-1023456789</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="1"/>
+        <v>3204567890</v>
+      </c>
+      <c r="M8" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>maria.gomez85@mail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>1034567890</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>35013</v>
       </c>
       <c r="G9" s="5">
         <v>3156781234</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>49</v>
+      <c r="H9" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="13" t="str">
+        <v>40</v>
+      </c>
+      <c r="J9" s="12" t="str">
         <f>Inmueble!E9</f>
-        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
-      </c>
-      <c r="K9" s="14" t="str">
+        <v>Apartamento1204 - Torre1 - Bolivar</v>
+      </c>
+      <c r="K9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Juan Rodríguez-Cédula de Ciudadanía-1034567890-Apartamento '1204' de Torre7 de 4-Bolivar</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+        <v>Cédula de Ciudadanía-1034567890</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="1"/>
+        <v>3156781234</v>
+      </c>
+      <c r="M9" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>juan.rodriguez95@mail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5">
         <v>900123456</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>36560</v>
       </c>
       <c r="G10" s="5">
         <v>3112345678</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>53</v>
+      <c r="H10" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="13" t="str">
+        <v>44</v>
+      </c>
+      <c r="J10" s="12" t="str">
         <f>Inmueble!E10</f>
-        <v>Casa '5' de Bloque2 de 2-Natural</v>
-      </c>
-      <c r="K10" s="14" t="str">
+        <v>Casa5 - Bloque1 - Natural</v>
+      </c>
+      <c r="K10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Camila Torres-Tarjeta de Identidad-900123456-Casa '5' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+        <v>Tarjeta de Identidad-900123456</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="1"/>
+        <v>3112345678</v>
+      </c>
+      <c r="M10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>camila.torres00@mail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5">
         <v>1045678901</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>33867</v>
       </c>
       <c r="G11" s="5">
         <v>3149876543</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>57</v>
+      <c r="H11" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>Inmueble!E11</f>
-        <v>Casa '17' de Bloque3 de 3-Riogrande</v>
-      </c>
-      <c r="K11" s="14" t="str">
+        <v>Casa17 - Bloque2 - Riogrande</v>
+      </c>
+      <c r="K11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Andrés García-Pasaporte-1045678901-Casa '17' de Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+        <v>Pasaporte-1045678901</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="1"/>
+        <v>3149876543</v>
+      </c>
+      <c r="M11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>andres.garcia92@mail.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
         <v>1056789012</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>34128</v>
       </c>
       <c r="G12" s="5">
         <v>3135678901</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>61</v>
+      <c r="H12" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>Inmueble!E12</f>
-        <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
-      </c>
-      <c r="K12" s="14" t="str">
+        <v>Apartamento514 - Bloque1 - Riogrande</v>
+      </c>
+      <c r="K12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Martínez-Cédula de Ciudadanía-1056789012-Apartamento '514' de Bloque2 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+        <v>Cédula de Ciudadanía-1056789012</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="1"/>
+        <v>3135678901</v>
+      </c>
+      <c r="M12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>laura.martinez93@mail.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5">
         <v>1067890123</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>32507</v>
       </c>
       <c r="G13" s="5">
         <v>3123456789</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>65</v>
+      <c r="H13" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="str">
         <f>Inmueble!E13</f>
-        <v>Casa '23' de Bloque2 de 2-Natural</v>
-      </c>
-      <c r="K13" s="14" t="str">
+        <v>Casa23 - Bloque1 - Natural</v>
+      </c>
+      <c r="K13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Felipe Ramírez-Cédula de Ciudadanía-1067890123-Casa '23' de Bloque2 de 2-Natural</v>
+        <v>Cédula de Ciudadanía-1067890123</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="1"/>
+        <v>3123456789</v>
+      </c>
+      <c r="M13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>felipe.ramirez88@mail.com</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1521,7 @@
     <hyperlink ref="J3" location="Inmueble!A1" display=" inmueble" xr:uid="{208DFBAD-01DD-4A87-9EFE-F42B4B55A273}"/>
     <hyperlink ref="J4" location="Inmueble!A4" display="Inmueble!A4" xr:uid="{EEA6EDEE-53E3-4B08-9B27-E8EC2A82F130}"/>
     <hyperlink ref="J5" location="Inmueble!A5" display="Inmueble!A5" xr:uid="{E38C6EA8-431F-4193-A36E-F18D7485808F}"/>
-    <hyperlink ref="J6" location="Inmueble!A7" display="Inmueble!A7" xr:uid="{865D54C3-47D6-4AA8-949F-AD73BB4A1616}"/>
+    <hyperlink ref="J6" location="Inmueble!A6" display="Inmueble!A6" xr:uid="{865D54C3-47D6-4AA8-949F-AD73BB4A1616}"/>
     <hyperlink ref="J7" location="Inmueble!A7" display="Inmueble!A7" xr:uid="{9470F1B9-C634-40B6-A806-6B7A19D8AB67}"/>
     <hyperlink ref="J8" location="Inmueble!A8" display="Inmueble!A8" xr:uid="{5798B1E0-6604-435B-800A-070E4D29EB8E}"/>
     <hyperlink ref="J9" location="Inmueble!A9" display="Inmueble!A9" xr:uid="{C37C38C8-6171-4042-82B5-FF6E5C1D13E5}"/>
@@ -1399,6 +1531,9 @@
     <hyperlink ref="J13" location="Inmueble!A13" display="Inmueble!A13" xr:uid="{C97134FD-4919-4E6C-8A98-02699E1786E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L4" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1407,11 +1542,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" customWidth="1"/>
@@ -1419,236 +1555,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
+    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>35</v>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <v>102</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>[2]Zonainmueble!$E$4</f>
-        <v>Torre1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="E4" s="16" t="str">
-        <f>_xlfn.CONCAT(B4," '",C4,"'"," de ",D4)</f>
-        <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
+        <f>[1]Zonainmueble!$E$4</f>
+        <v>Torre1 - Forest apartamentos</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f>_xlfn.CONCAT(B4,C4," - ",D4)</f>
+        <v>Apartamento102 - Torre1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>[2]Zonainmueble!$E$5</f>
-        <v>Bloque1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="E5" s="16" t="str">
-        <f t="shared" ref="E5:E13" si="0">_xlfn.CONCAT(B5," '",C5,"'"," de ",D5)</f>
-        <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+        <f>[1]Zonainmueble!$E$5</f>
+        <v>Bloque1 - Forest apartamentos</v>
+      </c>
+      <c r="E5" s="15" t="str">
+        <f t="shared" ref="E5:E13" si="0">_xlfn.CONCAT(B5,C5," - ",D5)</f>
+        <v>Casa10 - Bloque1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>304</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>[2]Zonainmueble!$E$6</f>
-        <v>Torre2 de 1-Forest apartamentos</v>
-      </c>
-      <c r="E6" s="16" t="str">
+        <f>[1]Zonainmueble!$E$6</f>
+        <v>Torre2 - Forest apartamentos</v>
+      </c>
+      <c r="E6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+        <v>Apartamento304 - Torre2 - Forest apartamentos</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>[2]Zonainmueble!$E$7</f>
-        <v>Bloque2 de 2-Natural</v>
-      </c>
-      <c r="E7" s="16" t="str">
+        <f>[1]Zonainmueble!$E$7</f>
+        <v>Bloque1 - Natural</v>
+      </c>
+      <c r="E7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
+        <v>Casa11 - Bloque1 - Natural</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>423</v>
       </c>
-      <c r="D8" s="5" t="str">
-        <f>[2]Zonainmueble!E10</f>
-        <v>Bloque5 de 5-Ventus</v>
-      </c>
-      <c r="E8" s="16" t="str">
+      <c r="D8" s="2" t="str">
+        <f>[1]Zonainmueble!E10</f>
+        <v>Bloque1 - Ventus</v>
+      </c>
+      <c r="E8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
+        <v>Apartamento423 - Bloque1 - Ventus</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>1204</v>
       </c>
-      <c r="D9" s="5" t="str">
-        <f>[2]Zonainmueble!E11</f>
-        <v>Torre7 de 4-Bolivar</v>
-      </c>
-      <c r="E9" s="16" t="str">
+      <c r="D9" s="2" t="str">
+        <f>[1]Zonainmueble!E11</f>
+        <v>Torre1 - Bolivar</v>
+      </c>
+      <c r="E9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+        <v>Apartamento1204 - Torre1 - Bolivar</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f>[2]Zonainmueble!E7</f>
-        <v>Bloque2 de 2-Natural</v>
-      </c>
-      <c r="E10" s="16" t="str">
+      <c r="D10" s="2" t="str">
+        <f>[1]Zonainmueble!E7</f>
+        <v>Bloque1 - Natural</v>
+      </c>
+      <c r="E10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '5' de Bloque2 de 2-Natural</v>
+        <v>Casa5 - Bloque1 - Natural</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="21">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="str">
-        <f>[2]Zonainmueble!E12</f>
-        <v>Bloque3 de 3-Riogrande</v>
-      </c>
-      <c r="E11" s="16" t="str">
-        <f>_xlfn.CONCAT(B11," '",C11,"'"," de ",D11)</f>
-        <v>Casa '17' de Bloque3 de 3-Riogrande</v>
+      <c r="D11" s="2" t="str">
+        <f>[1]Zonainmueble!E12</f>
+        <v>Bloque2 - Riogrande</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Casa17 - Bloque2 - Riogrande</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>35</v>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="5">
         <v>514</v>
       </c>
-      <c r="D12" s="5" t="str">
-        <f>[2]Zonainmueble!E9</f>
-        <v>Bloque2 de 3-Riogrande</v>
-      </c>
-      <c r="E12" s="16" t="str">
+      <c r="D12" s="2" t="str">
+        <f>[1]Zonainmueble!E9</f>
+        <v>Bloque1 - Riogrande</v>
+      </c>
+      <c r="E12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
+        <v>Apartamento514 - Bloque1 - Riogrande</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="5">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="str">
-        <f>[2]Zonainmueble!E7</f>
-        <v>Bloque2 de 2-Natural</v>
-      </c>
-      <c r="E13" s="16" t="str">
+      <c r="D13" s="2" t="str">
+        <f>[1]Zonainmueble!E7</f>
+        <v>Bloque1 - Natural</v>
+      </c>
+      <c r="E13" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '23' de Bloque2 de 2-Natural</v>
+        <v>Casa23 - Bloque1 - Natural</v>
       </c>
     </row>
   </sheetData>
@@ -1656,18 +1792,24 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{6006F0DE-C3DA-46C8-8C54-36919D59A24F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10" xr:uid="{CA6817BB-2012-4EC5-8A49-271F39AAC04B}">
       <formula1>$A$14:$A$15</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{59B96AB1-293A-44D1-B8EE-C5A604C6C87A}"/>
-    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{A9A61E7B-D75D-488E-ACCF-F5AD523C1A9D}"/>
-    <hyperlink ref="D3" location="Zonainmueble!A1" display="ZonaInmueble" xr:uid="{700B9BED-7D70-4761-A94E-A72A22F6B925}"/>
-    <hyperlink ref="D4" location="Zonainmueble!A4" display="Zonainmueble!A4" xr:uid="{353F6BA1-F240-482C-82D8-CFDA1E399ED2}"/>
-    <hyperlink ref="D5" location="Zonainmueble!A5" display="Zonainmueble!A5" xr:uid="{D7B0E47D-3D6D-4220-9DB5-415C623582BF}"/>
-    <hyperlink ref="D6" location="Zonainmueble!A6" display="Zonainmueble!A6" xr:uid="{21875771-1D9B-4868-9E51-773FF1AEB4E9}"/>
-    <hyperlink ref="D7" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{D76E7308-FA20-4A63-84B9-A7C412206763}"/>
+    <hyperlink ref="E1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{F119D66D-5968-4254-A523-357AEBC2E086}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{BEA8A92B-A5C4-4DFE-8B4E-FDC4C8A48901}"/>
+    <hyperlink ref="D3" location="Zonainmueble!A1" display="ZonaInmueble" xr:uid="{35F2826D-C755-4C7F-B8DC-2DDEB1453050}"/>
+    <hyperlink ref="D4" location="Zonainmueble!A4" display="Zonainmueble!A4" xr:uid="{A1624FE5-2C28-4120-A78B-781905AE515E}"/>
+    <hyperlink ref="D5" location="Zonainmueble!A5" display="Zonainmueble!A5" xr:uid="{ADF3415F-C899-448A-B3BB-0F106B0D56E7}"/>
+    <hyperlink ref="D6" location="Zonainmueble!A6" display="Zonainmueble!A6" xr:uid="{731E913D-B3C7-422C-B2F2-B5B9BB9C1222}"/>
+    <hyperlink ref="D7" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{EF72E72F-F0CE-466F-8919-00FBA814404A}"/>
+    <hyperlink ref="D8" location="Zonainmueble!A10" display="Zonainmueble!A10" xr:uid="{58DCC9F6-6B15-4B41-A52D-006E111902A5}"/>
+    <hyperlink ref="D9" location="Zonainmueble!A11" display="Zonainmueble!A11" xr:uid="{3DEC5304-17DE-46B0-A1B8-8E053B0EA20B}"/>
+    <hyperlink ref="D10" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{9FCD591D-0053-442A-B6C8-EC427BCA624B}"/>
+    <hyperlink ref="D11" location="Zonainmueble!A12" display="Zonainmueble!A12" xr:uid="{69EA0A17-D5A0-4F64-AFDA-8119FA0B860E}"/>
+    <hyperlink ref="D12" location="Zonainmueble!A9" display="Zonainmueble!A9" xr:uid="{9D9E7533-FBD6-475E-88DF-0838E065761E}"/>
+    <hyperlink ref="D13" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{99B6708E-64FB-4ACC-96F7-503745C0CB19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B8FC5-C25C-4C3F-85DC-A6317E7512F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAED78-25CB-4083-A653-46662D85FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>apellido</t>
   </si>
   <si>
-    <t>tipoDeDocumento</t>
-  </si>
-  <si>
     <t>Es un dato que hace que cada inmueble sea único.</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>numeroContacto</t>
   </si>
   <si>
-    <t>correo</t>
-  </si>
-  <si>
     <t>Combinación única 2</t>
   </si>
   <si>
@@ -297,6 +291,12 @@
   </si>
   <si>
     <t>No puede haber mas de un residente con el mismo número de contacto</t>
+  </si>
+  <si>
+    <t>tipoDocumento</t>
+  </si>
+  <si>
+    <t>correoElectronico</t>
   </si>
 </sst>
 </file>
@@ -437,9 +437,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -451,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,6 +477,41 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo Dominio anémico contexto"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Residente"/>
+      <sheetName val="Inmueble"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Objetos de dominio"/>
       <sheetName val="Administrador"/>
       <sheetName val="ConjuntoResidencial"/>
@@ -485,9 +520,9 @@
       <sheetName val="ZonaComun"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="4">
           <cell r="E4" t="str">
@@ -530,43 +565,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Valores"/>
-      <sheetName val="Modelo Dominio anémico contexto"/>
-      <sheetName val="Listado Objetos de Dominio"/>
-      <sheetName val="Residente"/>
-      <sheetName val="Inmueble"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E1381-9DD8-476B-8044-3E079F79E259}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>'[2]Listado Objetos de Dominio'!$B$3</f>
+        <f>'[1]Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>'[2]Listado Objetos de Dominio'!$B$4</f>
+        <f>'[1]Listado Objetos de Dominio'!$B$4</f>
         <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
     </row>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F213F-7D77-4A77-8569-EB0D1E5DC4A2}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,12 +959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -972,45 +972,45 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="K2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>82</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1024,19 +1024,19 @@
         <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -1048,10 +1048,10 @@
         <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>Casa10 - Bloque1 - Forest apartamentos</v>
       </c>
       <c r="K5" s="13" t="str">
-        <f t="shared" ref="K5:M13" si="0">_xlfn.CONCAT(D5,"-",E5)</f>
+        <f t="shared" ref="K5:K13" si="0">_xlfn.CONCAT(D5,"-",E5)</f>
         <v>Registro civil-16513516</v>
       </c>
       <c r="L5" s="13">
@@ -1555,29 +1555,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1608,7 +1608,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>[1]Zonainmueble!$E$4</f>
+        <f>[2]Zonainmueble!$E$4</f>
         <v>Torre1 - Forest apartamentos</v>
       </c>
       <c r="E4" s="15" t="str">
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1627,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>[1]Zonainmueble!$E$5</f>
+        <f>[2]Zonainmueble!$E$5</f>
         <v>Bloque1 - Forest apartamentos</v>
       </c>
       <c r="E5" s="15" t="str">
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1646,7 +1646,7 @@
         <v>304</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>[1]Zonainmueble!$E$6</f>
+        <f>[2]Zonainmueble!$E$6</f>
         <v>Torre2 - Forest apartamentos</v>
       </c>
       <c r="E6" s="15" t="str">
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>[1]Zonainmueble!$E$7</f>
+        <f>[2]Zonainmueble!$E$7</f>
         <v>Bloque1 - Natural</v>
       </c>
       <c r="E7" s="15" t="str">
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1684,7 +1684,7 @@
         <v>423</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>[1]Zonainmueble!E10</f>
+        <f>[2]Zonainmueble!E10</f>
         <v>Bloque1 - Ventus</v>
       </c>
       <c r="E8" s="15" t="str">
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1703,7 +1703,7 @@
         <v>1204</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>[1]Zonainmueble!E11</f>
+        <f>[2]Zonainmueble!E11</f>
         <v>Torre1 - Bolivar</v>
       </c>
       <c r="E9" s="15" t="str">
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>[1]Zonainmueble!E7</f>
+        <f>[2]Zonainmueble!E7</f>
         <v>Bloque1 - Natural</v>
       </c>
       <c r="E10" s="15" t="str">
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1741,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>[1]Zonainmueble!E12</f>
+        <f>[2]Zonainmueble!E12</f>
         <v>Bloque2 - Riogrande</v>
       </c>
       <c r="E11" s="15" t="str">
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1760,7 +1760,7 @@
         <v>514</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>[1]Zonainmueble!E9</f>
+        <f>[2]Zonainmueble!E9</f>
         <v>Bloque1 - Riogrande</v>
       </c>
       <c r="E12" s="15" t="str">
@@ -1769,7 +1769,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1779,7 +1779,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>[1]Zonainmueble!E7</f>
+        <f>[2]Zonainmueble!E7</f>
         <v>Bloque1 - Natural</v>
       </c>
       <c r="E13" s="15" t="str">

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAED78-25CB-4083-A653-46662D85FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF7177-5E49-46A7-AB3A-32445B9ACD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Nombre</t>
   </si>
@@ -297,6 +296,12 @@
   </si>
   <si>
     <t>correoElectronico</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </t>
   </si>
 </sst>
 </file>
@@ -471,41 +476,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Valores"/>
-      <sheetName val="Modelo Dominio anémico contexto"/>
-      <sheetName val="Listado Objetos de Dominio"/>
-      <sheetName val="Residente"/>
-      <sheetName val="Inmueble"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -892,16 +862,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,22 +879,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$3</f>
-        <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$4</f>
-        <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -941,24 +909,24 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.5546875" customWidth="1"/>
+    <col min="3" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -972,7 +940,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1099,7 +1067,7 @@
         <v>example@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1144,7 +1112,7 @@
         <v xml:space="preserve">ejemplo@jueves.com </v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1189,7 +1157,7 @@
         <v>andresjobpk@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1234,7 +1202,7 @@
         <v>alejandro.perez90@mail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1279,7 +1247,7 @@
         <v>maria.gomez85@mail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1324,7 +1292,7 @@
         <v>juan.rodriguez95@mail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1369,7 +1337,7 @@
         <v>camila.torres00@mail.com</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1414,7 +1382,7 @@
         <v>andres.garcia92@mail.com</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1459,7 +1427,7 @@
         <v>laura.martinez93@mail.com</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1545,16 +1513,16 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1531,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>68</v>
       </c>
@@ -1580,7 +1548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1597,7 +1565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -1608,7 +1576,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>[2]Zonainmueble!$E$4</f>
+        <f>[1]Zonainmueble!$E$4</f>
         <v>Torre1 - Forest apartamentos</v>
       </c>
       <c r="E4" s="15" t="str">
@@ -1616,7 +1584,7 @@
         <v>Apartamento102 - Torre1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -1627,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>[2]Zonainmueble!$E$5</f>
+        <f>[1]Zonainmueble!$E$5</f>
         <v>Bloque1 - Forest apartamentos</v>
       </c>
       <c r="E5" s="15" t="str">
@@ -1635,7 +1603,7 @@
         <v>Casa10 - Bloque1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -1646,7 +1614,7 @@
         <v>304</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>[2]Zonainmueble!$E$6</f>
+        <f>[1]Zonainmueble!$E$6</f>
         <v>Torre2 - Forest apartamentos</v>
       </c>
       <c r="E6" s="15" t="str">
@@ -1654,7 +1622,7 @@
         <v>Apartamento304 - Torre2 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -1665,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>[2]Zonainmueble!$E$7</f>
+        <f>[1]Zonainmueble!$E$7</f>
         <v>Bloque1 - Natural</v>
       </c>
       <c r="E7" s="15" t="str">
@@ -1673,7 +1641,7 @@
         <v>Casa11 - Bloque1 - Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -1684,7 +1652,7 @@
         <v>423</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>[2]Zonainmueble!E10</f>
+        <f>[1]Zonainmueble!E10</f>
         <v>Bloque1 - Ventus</v>
       </c>
       <c r="E8" s="15" t="str">
@@ -1692,7 +1660,7 @@
         <v>Apartamento423 - Bloque1 - Ventus</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -1703,7 +1671,7 @@
         <v>1204</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>[2]Zonainmueble!E11</f>
+        <f>[1]Zonainmueble!E11</f>
         <v>Torre1 - Bolivar</v>
       </c>
       <c r="E9" s="15" t="str">
@@ -1711,7 +1679,7 @@
         <v>Apartamento1204 - Torre1 - Bolivar</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -1722,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>[2]Zonainmueble!E7</f>
+        <f>[1]Zonainmueble!E7</f>
         <v>Bloque1 - Natural</v>
       </c>
       <c r="E10" s="15" t="str">
@@ -1730,7 +1698,7 @@
         <v>Casa5 - Bloque1 - Natural</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>8</v>
       </c>
@@ -1741,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>[2]Zonainmueble!E12</f>
+        <f>[1]Zonainmueble!E12</f>
         <v>Bloque2 - Riogrande</v>
       </c>
       <c r="E11" s="15" t="str">
@@ -1749,7 +1717,7 @@
         <v>Casa17 - Bloque2 - Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>9</v>
       </c>
@@ -1760,7 +1728,7 @@
         <v>514</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>[2]Zonainmueble!E9</f>
+        <f>[1]Zonainmueble!E9</f>
         <v>Bloque1 - Riogrande</v>
       </c>
       <c r="E12" s="15" t="str">
@@ -1768,7 +1736,7 @@
         <v>Apartamento514 - Bloque1 - Riogrande</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>10</v>
       </c>
@@ -1779,7 +1747,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>[2]Zonainmueble!E7</f>
+        <f>[1]Zonainmueble!E7</f>
         <v>Bloque1 - Natural</v>
       </c>
       <c r="E13" s="15" t="str">

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/Residentes Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF7177-5E49-46A7-AB3A-32445B9ACD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443CC55-9EC9-45F8-976C-92907EB56DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
+    <workbookView xWindow="38280" yWindow="2100" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A03FCC9F-8ADB-4317-A3D3-F6E5CE84BC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,9 @@
       <sheetName val="ZonaComun"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="4">
           <cell r="E4" t="str">
@@ -535,8 +535,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -909,7 +909,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1048576"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1510,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
